--- a/doc/数据库表.xlsx
+++ b/doc/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="11670" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="20730" windowHeight="11610" firstSheet="25" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="表格" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,30 @@
     <sheet name="采购订单" sheetId="12" r:id="rId12"/>
     <sheet name="采购退补差价单" sheetId="13" r:id="rId13"/>
     <sheet name="采购退回开票单" sheetId="14" r:id="rId14"/>
+    <sheet name="销售开票单" sheetId="15" r:id="rId15"/>
+    <sheet name="销售退补差价单" sheetId="17" r:id="rId16"/>
+    <sheet name="销售退回开票单" sheetId="16" r:id="rId17"/>
+    <sheet name="收货单" sheetId="18" r:id="rId18"/>
+    <sheet name="验收单" sheetId="19" r:id="rId19"/>
+    <sheet name="入库单（待定）" sheetId="20" r:id="rId20"/>
+    <sheet name="移库单" sheetId="21" r:id="rId21"/>
+    <sheet name="采购补货计划" sheetId="22" r:id="rId22"/>
+    <sheet name="缺货登记" sheetId="23" r:id="rId23"/>
+    <sheet name="破损报废单" sheetId="24" r:id="rId24"/>
+    <sheet name="出库复核（待定）" sheetId="25" r:id="rId25"/>
+    <sheet name="清单打印（待定）" sheetId="26" r:id="rId26"/>
+    <sheet name="库存查询" sheetId="27" r:id="rId27"/>
+    <sheet name="历史库存查询（待定）" sheetId="28" r:id="rId28"/>
+    <sheet name="盘点" sheetId="29" r:id="rId29"/>
+    <sheet name="发货单（待定）" sheetId="30" r:id="rId30"/>
+    <sheet name="流向" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="566">
   <si>
     <t>功能一级</t>
   </si>
@@ -1001,6 +1018,378 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>业务组</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算价格页面</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品定价维护</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>本公司</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>区分：根据采购订单区分</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件：</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.没有定价时，客户只能看见商品，但无法开票</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.增加第三方入住查看公营价可视checkbox，选中即可查看公营价，其他价格不显示，默认所以价格不显示</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.增加除第三方外客户checkbox，选中可以查看自己绑定的类型价格，否则对应价格不显示，默认其他类型价格不显示</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.本公司列表支持某类价格按照某类价格加点批量设置</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.单条记录支持价格修改</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务组</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>本公司</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照本方做</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否本方标识</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.第三方增加公营一类价格、公营二类价格、公营三类价格、公营三类价格、公营四类价格、公营五类价格、</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域经理业务员定价</t>
+  </si>
+  <si>
+    <t>数据来源：结算对象里面的区域经理和业务员（排除掉单位账客户）、单位账客户（待定）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示：区域经理和业务员下的非单位账客户、以及单位账客户</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格：来源结算对象对应的价格</t>
+  </si>
+  <si>
+    <t>加价：弹出所有商品，两种方式加价：1.加点统一加 2.单条记录支持修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户类别：单位账、非单位账</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据编号</t>
+  </si>
+  <si>
+    <t>供应商</t>
+  </si>
+  <si>
+    <t>采购员</t>
+  </si>
+  <si>
+    <t>订单日期</t>
+  </si>
+  <si>
+    <t>摘要</t>
+  </si>
+  <si>
+    <t>对方业务员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方业务员模板（委托人）  增加是否设置为结算对象   增加状态位：区分是本公司还是第三方</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商对方业务员模板（委托人）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库仓库</t>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>本公司的业务组和本公司第三方入住</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品IDS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联商品表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品采购表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>库房名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>整件件数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>零散件数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>含税金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含税金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>税额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>含税金额=不含税金额+税额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购退补差价单</t>
+  </si>
+  <si>
+    <t>采购单号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品在采购单的基础上增加的字段如下：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位退补差价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表页面显示退补单子信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>退补差价总税额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>退补差价总含税金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购退回开票单</t>
+  </si>
+  <si>
+    <t>单位退货数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货原因</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细页面根据CG单子显示所有的商品，默认退货数量为0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购退回总不含税金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购退回总税额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购退回总含税金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制采购员（复制绑定的商品信息）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算对象来源：客户资料、业务组、供应商业务组、区域经理、业务员（增加是否设置为结算对象）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营范围</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域经理、业务员、内部员工   操作列增加区域经理绑定业务员功能按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>退补差价总不含税金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细页面根据CG单子显示所有的商品，默认退补差价为0，为0的不保存到数据库</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>商品I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售开票单</t>
+  </si>
+  <si>
+    <t>单据编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>流图状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>制单日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊权限人可以修改制单日期，其他人默认</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出货仓库</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典：集中开票、随货同行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>货运类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算对象</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>结算对象类型I</t>
     </r>
@@ -1018,113 +1407,238 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>业务组</t>
+    <t>自营型、提成型、任务型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司、终端、配送客户</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域经理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位账客户、非单位账客户</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否单位账客户</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品销售</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款方式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典：现金、赊欠、支付宝、微信</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费承担方</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典：公司承担、客户承担</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>货位号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>库房名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>批号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期至</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含：商品编号、俗称、商品名称、商品规格、单位、国药准字、生产厂家、装量、零售价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开票价格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>返点</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>结算价格页面</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品定价维护</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>本公司</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购订单</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>区分：根据采购订单区分</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件：</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.没有定价时，客户只能看见商品，但无法开票</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.增加第三方入住查看公营价可视checkbox，选中即可查看公营价，其他价格不显示，默认所以价格不显示</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.增加除第三方外客户checkbox，选中可以查看自己绑定的类型价格，否则对应价格不显示，默认其他类型价格不显示</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.本公司列表支持某类价格按照某类价格加点批量设置</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.单条记录支持价格修改</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务组</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>本公司</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照本方做</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否本方标识</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.第三方增加公营一类价格、公营二类价格、公营三类价格、公营三类价格、公营四类价格、公营五类价格、</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域经理业务员定价</t>
-  </si>
-  <si>
-    <t>数据来源：结算对象里面的区域经理和业务员（排除掉单位账客户）、单位账客户（待定）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示：区域经理和业务员下的非单位账客户、以及单位账客户</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格：来源结算对象对应的价格</t>
-  </si>
-  <si>
-    <t>加价：弹出所有商品，两种方式加价：1.加点统一加 2.单条记录支持修改</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户类别：单位账、非单位账</t>
+    <t>结算价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高开价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含：商品编号、俗称、商品名称、商品规格、单位、国药准字、生产厂家、装量、业务组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售退回开票单</t>
+  </si>
+  <si>
+    <t>销售退补差价单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售单号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品在销售单的基础上增加的字段如下：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细页面根据XS单子显示所有的商品，默认退补差价为0，为0的不保存到数据库</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>含税金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含税金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>税额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售退回总不含税金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售退回总税额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售退回总含税金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细页面根据XS单子显示所有的商品，默认退货数量为0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能：提取采购订单，确认商品数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动生成，生成原则：8位，CG年月日+5位数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动生成，生成原则：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>到货数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒收数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会重新发货</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>若订单数量=实收数量+拒收数量，采购订单入库完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收含税金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收不含税金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收整件件数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收零散件数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收税额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收税率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒收原因</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1132,222 +1646,518 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>单据编号</t>
-  </si>
-  <si>
-    <t>自动生成，生成原则：8位，CG00000001</t>
+    <t>备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含：商品编号、俗称、商品名称、商品规格、单位、国药准字、生产厂家、装量、零售价、货位名称、批号、生产日期、有效期至</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库单号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库库房</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库库房</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品移库表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库货位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库货位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>散货移入整货，必须是装量倍数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否调拨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品IDS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售量-散货库存量〉0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>热销</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>装箱数量</t>
+  </si>
+  <si>
+    <t>销售量-散货库存量《0</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>散货库存量</t>
+  </si>
+  <si>
+    <t>《</t>
+  </si>
+  <si>
+    <t>移库数为1件</t>
+  </si>
+  <si>
+    <t>冷门</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>装箱数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%（可以自己调）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有统一的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库数（四舍五入）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加一个散件补货按钮：可以根据时间获取销售量，计算出移库数，可以多选</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购补货计划</t>
+  </si>
+  <si>
+    <t>缺货登记</t>
+  </si>
+  <si>
+    <t>登记日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品规格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产厂家</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>计量规格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能：列表添加保存</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据来源：1.缺货登记、2仓库补货计划</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否加入补货计划</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表数据展现主要是仓库补货计划，点击缺货登记，查看缺货登记列表，可以选择</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选条件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有库存</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品状态：是否停止销售</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>剂型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装量数</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>供应商</t>
-  </si>
-  <si>
-    <t>采购员</t>
-  </si>
-  <si>
-    <t>订单日期</t>
-  </si>
-  <si>
-    <t>摘要</t>
-  </si>
-  <si>
-    <t>对方业务员</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>对方业务员模板（委托人）  增加是否设置为结算对象   增加状态位：区分是本公司还是第三方</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商对方业务员模板（委托人）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库仓库</t>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>本公司的业务组和本公司第三方入住</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品IDS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联商品表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品采购表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>库房名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>整件件数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>零散件数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>含税金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不含税金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>税额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>含税金额=不含税金额+税额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>税率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购订单</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含：商品编号、俗称、商品名称、商品规格、单位、国药准字、生产厂家、装量、零售价</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购退补差价单</t>
-  </si>
-  <si>
-    <t>采购单号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品在采购单的基础上增加的字段如下：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位退补差价</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表页面显示退补单子信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>退补差价总税额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>退补差价总含税金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购退回开票单</t>
-  </si>
-  <si>
-    <t>单位退货数量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货原因</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>明细页面根据CG单子显示所有的商品，默认退货数量为0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购退回总不含税金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购退回总税额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购退回总含税金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制采购员（复制绑定的商品信息）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算对象来源：客户资料、业务组、供应商业务组、区域经理、业务员（增加是否设置为结算对象）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>经营范围</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域经理、业务员、内部员工   操作列增加区域经理绑定业务员功能按钮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>退补差价总不含税金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>明细页面根据CG单子显示所有的商品，默认退补差价为0，为0的不保存到数据库</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购单号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产企业</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史销量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划采购量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>商品I</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>D</t>
+      <t xml:space="preserve">          </t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>冷门</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在途商品数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：1.在   上选择打钩后（可以多选也可以单选），点击右键，能生成采购订单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2.在点击右键，有采购查询项，选择采购查询，能看到此品种的历史采购记录（包括供应商，价格，付款方式，是否有活动及活动详情）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.添加一栏在途数，一旦品种下订单，则显示此品种已采购，防止重复采购</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.可以再此页面上选择供应商点击右键查询此供应商的财务状况{公司与此供应商的交易总表金额和明细（包含退补差价，活动需要支付或者应收的返利金额），应收应付情况</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       （包括明细）发票开具往来情况（包括明细）}</t>
+  </si>
+  <si>
+    <t>破损报废单</t>
+  </si>
+  <si>
+    <t>单据状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>报废原因</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认，不可修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能：列表添加保存,走流程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>批号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>报废数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>含税金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含税金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>税额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对于近效期或者过期药品（才能进行报废制单），有制单权限，必须通过公司领导层审批后方可进行报废，并减相应的库存。</t>
+  </si>
+  <si>
+    <t>2.对于报损的品种进行两种方式处理，一是可以退回厂家或者商业公司时，进行关联采购订单制单，通过审核后确认后，账务冲抵应付账款，不能退回则公司进行单独处理。</t>
+  </si>
+  <si>
+    <t>所有商品都可以选</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库复核</t>
+  </si>
+  <si>
+    <t>打印清单</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 在打印清单时，做个清单份额数，每份清单都有自己的份额数，并作合计。（主要与其他业务组进行清单费用合计,包含退货单，入库单………..）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 在出库复核拼箱时，对应单据复合完毕（存在差异，打印了差异单）打印大标贴时，此单据（多张单据）自动出库（若有品种没有复核或者说遗漏则出不了库，打不了标贴）
+</t>
+  </si>
+  <si>
+    <t>2. 在出库复核单据时，输入客户（或者业务员，区域经理）一个单据号,则可以看到此客户在此复合台的其他单号的情况（是开票，打印单据，拣货..）,也可以选择开其他单号在哪个复合台进行中或者还未</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   进行分配复合台），以便及时调度拼箱。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（不是单位账客户在适用此条）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. 单位账的客户，其单据自动在复合台之间进行分配</t>
+    </r>
+  </si>
+  <si>
+    <t>4. 中国药品监管码的扫码必须一个一个扫，（监管码和药品码二选一，有监管码必须扫监管码，没有监管码扫药品码，）若是码扫不出可则需要特殊权限强行通过（药品码除外），没有药品码则可敲数量通过，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   待单据上所有品种符合通过后，即为符合完毕（包含打差异的）</t>
+  </si>
+  <si>
+    <t>库存查询</t>
+  </si>
+  <si>
+    <t>库房名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品俗名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>剂型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期至</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>整件件数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>散件件数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否基药</t>
+  </si>
+  <si>
+    <t>是否基药</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>近效期天数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准文号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在销售单的数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>占用数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点仓库</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘盈金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含税盘盈金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盘点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库下所有商品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要导出功能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>流向</t>
+  </si>
+  <si>
+    <t>里面包含采购入库，销售出库，报损，报废，盘点，采购退出，销售退回，仓库移入移出。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1427,6 +2237,32 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1547,11 +2383,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1634,9 +2473,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2194,13 +3073,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>809398</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>37941</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2267,6 +3146,190 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 5" descr="C:\Documents and Settings\Administrator\Application Data\Tencent\Users\583673056\QQ\WinTemp\RichOle\(EN~N(RZ)UBC}D9)081~~(9.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2057400" y="6172200"/>
+          <a:ext cx="200025" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1237907</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19011</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6200775"/>
+          <a:ext cx="2742857" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="704850" y="381000"/>
+          <a:ext cx="8934450" cy="6105525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2702,10 +3765,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2713,71 +3776,71 @@
         <v>271</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2799,27 +3862,27 @@
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="L7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2851,10 +3914,10 @@
         <v>219</v>
       </c>
       <c r="J8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M8" s="13"/>
     </row>
@@ -2869,17 +3932,17 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2893,78 +3956,78 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H2" t="s">
-        <v>348</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C3" t="s">
-        <v>323</v>
+        <v>429</v>
       </c>
       <c r="G3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" t="s">
         <v>328</v>
       </c>
-      <c r="C8" t="s">
-        <v>330</v>
-      </c>
       <c r="G8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H8" t="s">
         <v>343</v>
-      </c>
-      <c r="H8" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2972,23 +4035,23 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -2999,65 +4062,67 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.75" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="6" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="8" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>371</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3071,68 +4136,754 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>372</v>
+      </c>
+      <c r="H3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H4" t="s">
+        <v>412</v>
+      </c>
+      <c r="I4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>395</v>
+      </c>
+      <c r="H5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" t="s">
+        <v>376</v>
+      </c>
+      <c r="H6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>379</v>
+      </c>
+      <c r="H8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>380</v>
+      </c>
+      <c r="H9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C10" t="s">
+        <v>382</v>
+      </c>
+      <c r="H10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11" t="s">
+        <v>378</v>
+      </c>
+      <c r="H11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>384</v>
+      </c>
+      <c r="H12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>388</v>
+      </c>
+      <c r="H13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>389</v>
+      </c>
+      <c r="H14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>391</v>
+      </c>
+      <c r="C15" t="s">
+        <v>386</v>
+      </c>
+      <c r="H15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" t="s">
+        <v>392</v>
+      </c>
+      <c r="H16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C17" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="C18" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>397</v>
+      </c>
+      <c r="C20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>399</v>
+      </c>
+      <c r="C21" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>460</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>425</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="G5" t="s">
+        <v>432</v>
+      </c>
+      <c r="H5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="G6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="G7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" t="s">
+        <v>328</v>
+      </c>
+      <c r="G9" t="s">
+        <v>439</v>
+      </c>
+      <c r="H9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" t="s">
+        <v>320</v>
+      </c>
+      <c r="G10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>331</v>
+      </c>
+      <c r="G11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" t="s">
+        <v>333</v>
+      </c>
+      <c r="G12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G14" t="s">
+        <v>435</v>
+      </c>
+      <c r="H14" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G15" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G16" t="s">
+        <v>446</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4" t="s">
+        <v>432</v>
+      </c>
+      <c r="H4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="G5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="G6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G8" t="s">
+        <v>439</v>
+      </c>
+      <c r="H8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>331</v>
+      </c>
+      <c r="G10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>435</v>
+      </c>
+      <c r="H13" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G15" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -3577,7 +5328,7 @@
         <v>95</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3763,12 +5514,1317 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>452</v>
+      </c>
+      <c r="F4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>454</v>
+      </c>
+      <c r="F6" t="s">
+        <v>458</v>
+      </c>
+      <c r="H6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+    </row>
+    <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+    </row>
+    <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="15" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="20"/>
+      <c r="C16" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>502</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+    </row>
+    <row r="19" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>504</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+    </row>
+    <row r="20" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>505</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+    </row>
+    <row r="21" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="M21" s="34"/>
+    </row>
+    <row r="22" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="20"/>
+      <c r="D22" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+    </row>
+    <row r="23" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="39" t="s">
+        <v>506</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+    </row>
+    <row r="24" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="39" t="s">
+        <v>507</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+    </row>
+    <row r="25" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="40" t="s">
+        <v>508</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+    </row>
+    <row r="26" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="39" t="s">
+        <v>509</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+    </row>
+    <row r="27" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:H21"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D6" t="s">
+        <v>515</v>
+      </c>
+      <c r="E6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>517</v>
+      </c>
+      <c r="D9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>522</v>
+      </c>
+      <c r="E13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="41" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="43" t="s">
+        <v>531</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+    </row>
+    <row r="3" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+    </row>
+    <row r="4" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+    </row>
+    <row r="5" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+    </row>
+    <row r="6" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="39" t="s">
+        <v>535</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+    </row>
+    <row r="7" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="42" t="s">
+        <v>536</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A7:R7"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+    </row>
+    <row r="2" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="20"/>
+      <c r="B2" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:S2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>522</v>
+      </c>
+      <c r="B18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>553</v>
+      </c>
+      <c r="C25" t="s">
+        <v>552</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>555</v>
+      </c>
+      <c r="D4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>556</v>
+      </c>
+      <c r="D5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D6" t="s">
+        <v>515</v>
+      </c>
+      <c r="E6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>557</v>
+      </c>
+      <c r="D8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>517</v>
+      </c>
+      <c r="D11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>563</v>
+      </c>
+      <c r="D12" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>560</v>
+      </c>
+      <c r="E13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>561</v>
+      </c>
+      <c r="B17" t="s">
+        <v>562</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4049,9 +7105,809 @@
         <v>199</v>
       </c>
     </row>
+    <row r="51" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>548</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:S37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+    </row>
+    <row r="3" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="40" t="s">
+        <v>565</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+    </row>
+    <row r="4" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+    </row>
+    <row r="5" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+    </row>
+    <row r="6" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+    </row>
+    <row r="7" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+    </row>
+    <row r="8" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+    </row>
+    <row r="9" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+    </row>
+    <row r="10" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+    </row>
+    <row r="11" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+    </row>
+    <row r="12" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+    </row>
+    <row r="13" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+    </row>
+    <row r="14" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+    </row>
+    <row r="15" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+    </row>
+    <row r="16" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+    </row>
+    <row r="17" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+    </row>
+    <row r="18" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+    </row>
+    <row r="19" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+    </row>
+    <row r="20" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+    </row>
+    <row r="21" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+    </row>
+    <row r="22" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+    </row>
+    <row r="23" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+    </row>
+    <row r="24" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+    </row>
+    <row r="25" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+    </row>
+    <row r="26" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+    </row>
+    <row r="27" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+    </row>
+    <row r="28" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+    </row>
+    <row r="29" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+    </row>
+    <row r="30" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+    </row>
+    <row r="31" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+    </row>
+    <row r="32" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+    </row>
+    <row r="33" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+    </row>
+    <row r="34" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+    </row>
+    <row r="35" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+    </row>
+    <row r="36" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+    </row>
+    <row r="37" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:S3"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4244,7 +8100,7 @@
     </row>
     <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4404,7 +8260,7 @@
     </row>
     <row r="19" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C19" t="s">
         <v>221</v>
@@ -4570,7 +8426,7 @@
         <v>240</v>
       </c>
       <c r="C11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4645,7 +8501,7 @@
     </row>
     <row r="28" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4828,17 +8684,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4886,7 +8742,7 @@
     </row>
     <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>292</v>
+        <v>385</v>
       </c>
       <c r="J9" s="15"/>
     </row>
@@ -4907,29 +8763,31 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>276</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="K13" s="15"/>
+      <c r="M13" s="15"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+        <v>273</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4937,7 +8795,7 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4945,7 +8803,7 @@
     </row>
     <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4953,43 +8811,45 @@
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="31" t="s">
-        <v>284</v>
-      </c>
+      <c r="A21" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="31" t="s">
-        <v>285</v>
-      </c>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
-      <c r="B22" s="31"/>
+      <c r="B22" s="31" t="s">
+        <v>284</v>
+      </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="31"/>
+      <c r="D22" s="31" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
@@ -5011,37 +8871,37 @@
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>287</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-      <c r="B29" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="26" t="s">
+        <v>288</v>
+      </c>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
     </row>
@@ -5083,65 +8943,71 @@
     </row>
     <row r="37" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
     </row>
     <row r="38" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>289</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="19" t="s">
-        <v>294</v>
+      <c r="A40" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E42" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F41" s="14"/>
-    </row>
-    <row r="45" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="13" t="s">
+      <c r="F42" s="14"/>
+    </row>
+    <row r="46" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C46" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
+    <row r="48" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="B29:D36"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="B30:D37"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/数据库表.xlsx
+++ b/doc/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="20730" windowHeight="11610" firstSheet="25" activeTab="30"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="20730" windowHeight="11580" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="表格" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="567">
   <si>
     <t>功能一级</t>
   </si>
@@ -333,9 +333,6 @@
     <t>图片</t>
   </si>
   <si>
-    <t>用户类型</t>
-  </si>
-  <si>
     <t>用户状态</t>
   </si>
   <si>
@@ -355,9 +352,6 @@
   </si>
   <si>
     <t>公司类型</t>
-  </si>
-  <si>
-    <t>区分是本公司还是第三方</t>
   </si>
   <si>
     <t>预计转正时间</t>
@@ -927,10 +921,6 @@
   </si>
   <si>
     <t>增加是否设置为结算对象</t>
-  </si>
-  <si>
-    <t>增加是否设置为结算对象</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>结算对象名称助记码</t>
@@ -1162,10 +1152,6 @@
     <t>入库仓库</t>
   </si>
   <si>
-    <t>字典表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>本公司的业务组和本公司第三方入住</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1299,10 +1285,6 @@
   </si>
   <si>
     <t>经营范围</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域经理、业务员、内部员工   操作列增加区域经理绑定业务员功能按钮</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1355,10 +1337,6 @@
   </si>
   <si>
     <t>特殊权限人可以修改制单日期，其他人默认</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>出货仓库</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1471,10 +1449,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>库房名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>批号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1873,6 +1847,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1883,6 +1858,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2000,6 +1976,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   进行分配复合台），以便及时调度拼箱。</t>
@@ -2009,6 +1986,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（不是单位账客户在适用此条）</t>
@@ -2020,6 +1998,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -2029,6 +2008,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>. 单位账的客户，其单据自动在复合台之间进行分配</t>
@@ -2151,6 +2131,38 @@
   </si>
   <si>
     <t>里面包含采购入库，销售出库，报损，报废，盘点，采购退出，销售退回，仓库移入移出。</t>
+  </si>
+  <si>
+    <t>区域经理、业务员、内部员工、业务组   操作列增加区域经理绑定业务员功能按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>区分是本公司还是业务组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加是否设置为结算对象</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商和供应商业务组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位退补差价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位退货数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>库房名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2169,6 +2181,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2177,6 +2190,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2185,6 +2199,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2192,18 +2207,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2242,6 +2260,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2249,6 +2268,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2256,12 +2276,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2390,7 +2412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2443,6 +2465,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2476,19 +2507,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2500,18 +2525,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3654,7 +3677,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3677,7 +3700,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3726,18 +3749,18 @@
     </row>
     <row r="9" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3757,90 +3780,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3862,62 +3885,62 @@
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="L7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M8" s="13"/>
     </row>
@@ -3932,17 +3955,17 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3956,78 +3979,73 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="G3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="C8" t="s">
-        <v>328</v>
+        <v>323</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>563</v>
       </c>
       <c r="G8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="C9" t="s">
-        <v>330</v>
-      </c>
+      <c r="A9" s="20"/>
       <c r="G9" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4035,23 +4053,23 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -4065,64 +4083,64 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.75" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>349</v>
+      <c r="A5" s="45" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -4137,67 +4155,67 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>354</v>
+      <c r="A4" s="45" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -4210,15 +4228,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4234,180 +4252,174 @@
     </row>
     <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H4" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="I4" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H5" t="s">
         <v>395</v>
-      </c>
-      <c r="H5" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C6" t="s">
-        <v>376</v>
-      </c>
-      <c r="H6" t="s">
-        <v>402</v>
+        <v>371</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C7" t="s">
-        <v>378</v>
-      </c>
       <c r="H7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H8" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H9" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C10" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H10" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C11" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H11" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H12" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H13" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H14" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C15" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H15" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C16" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H16" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C17" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="21" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C18" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C20" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C21" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -4428,57 +4440,57 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -4502,60 +4514,60 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -4579,15 +4591,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="G2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4601,81 +4613,81 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C4" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G5" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="H5" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G6" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G8" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G9" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="H9" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G10" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4683,47 +4695,47 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G11" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G12" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G13" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G14" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="H14" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G15" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G16" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -4744,10 +4756,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4761,81 +4773,81 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C3" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G4" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="H4" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G5" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G6" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G8" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="H8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G9" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4843,47 +4855,47 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G10" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G11" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G12" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G13" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="H13" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G14" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G15" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -4896,8 +4908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5324,36 +5336,36 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>366</v>
+      <c r="A41" s="45" t="s">
+        <v>562</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E43" t="s">
         <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s">
         <v>23</v>
@@ -5367,7 +5379,7 @@
     </row>
     <row r="45" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E45" t="s">
         <v>26</v>
@@ -5378,10 +5390,10 @@
     </row>
     <row r="46" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>560</v>
       </c>
       <c r="E46" t="s">
         <v>31</v>
@@ -5391,8 +5403,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="15" t="s">
-        <v>268</v>
+      <c r="A47" s="45" t="s">
+        <v>561</v>
       </c>
       <c r="E47" t="s">
         <v>79</v>
@@ -5400,12 +5412,12 @@
     </row>
     <row r="48" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="5:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="5:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5413,7 +5425,7 @@
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="5:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5450,7 +5462,7 @@
     </row>
     <row r="56" spans="5:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="5:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5458,7 +5470,7 @@
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="5:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5490,22 +5502,22 @@
     </row>
     <row r="63" spans="5:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="5:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="5:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="5:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -5541,173 +5553,173 @@
   <sheetData>
     <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F2" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F4" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F5" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F6" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="H6" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34" t="s">
-        <v>463</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>468</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
+      <c r="A13" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="37" t="s">
-        <v>474</v>
-      </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="I15" s="36" t="s">
         <v>466</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34" t="s">
-        <v>467</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>468</v>
-      </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34" t="s">
-        <v>469</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="K15" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="K15" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="L15" s="34"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="20"/>
-      <c r="C16" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
+      <c r="C16" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20"/>
@@ -5725,12 +5737,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:G13"/>
@@ -5738,6 +5744,12 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5759,273 +5771,262 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>502</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34" t="s">
-        <v>463</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
+        <v>495</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>468</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
     </row>
     <row r="19" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>504</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
+        <v>497</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
     </row>
     <row r="20" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>505</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="37" t="s">
-        <v>474</v>
-      </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
+        <v>498</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33" t="s">
+        <v>496</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="H21" s="38"/>
+      <c r="I21" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="J21" s="36" t="s">
         <v>466</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34" t="s">
-        <v>467</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>468</v>
-      </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34" t="s">
-        <v>469</v>
-      </c>
-      <c r="J21" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="K21" s="34" t="s">
+      <c r="K21" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="L21" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="L21" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="M21" s="34"/>
+      <c r="M21" s="35"/>
     </row>
     <row r="22" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="20"/>
-      <c r="D22" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
+      <c r="D22" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="H22" s="37"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
     </row>
     <row r="23" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="39" t="s">
-        <v>506</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
+      <c r="A23" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="39" t="s">
-        <v>507</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
+      <c r="A24" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="40" t="s">
-        <v>508</v>
-      </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
+      <c r="A25" s="41" t="s">
+        <v>501</v>
+      </c>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
     </row>
     <row r="26" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="39" t="s">
-        <v>509</v>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
+      <c r="A26" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
     </row>
     <row r="27" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="39" t="s">
-        <v>510</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="A27" s="40" t="s">
+        <v>503</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:H22"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:H19"/>
@@ -6033,6 +6034,17 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6055,72 +6067,72 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -6141,117 +6153,117 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D2" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D3" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D4" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B5" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D5" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D6" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="E6" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D9" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="E13" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="41" t="s">
-        <v>525</v>
+      <c r="A18" s="24" t="s">
+        <v>518</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -6271,7 +6283,7 @@
     </row>
     <row r="19" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -6307,149 +6319,149 @@
   <sheetData>
     <row r="1" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+    </row>
+    <row r="3" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="43" t="s">
+        <v>525</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+    </row>
+    <row r="4" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+    </row>
+    <row r="5" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="40" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+    </row>
+    <row r="6" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="40" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
-        <v>531</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-    </row>
-    <row r="3" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="44" t="s">
-        <v>532</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-    </row>
-    <row r="4" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="44" t="s">
-        <v>533</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-    </row>
-    <row r="5" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="39" t="s">
-        <v>534</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-    </row>
-    <row r="6" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="39" t="s">
-        <v>535</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
     </row>
     <row r="7" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="42" t="s">
-        <v>536</v>
-      </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
+      <c r="A7" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A7:R7"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="A4:R4"/>
     <mergeCell ref="A5:R5"/>
     <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A7:R7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6468,7 +6480,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -6491,26 +6503,26 @@
     </row>
     <row r="2" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
-      <c r="B2" s="42" t="s">
-        <v>530</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
+      <c r="B2" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6536,133 +6548,133 @@
   <sheetData>
     <row r="1" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B18" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C25" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -6699,118 +6711,118 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D2" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D3" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="D4" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="D5" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D6" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="E6" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="D8" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D11" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D12" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="E13" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B17" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -6823,8 +6835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6837,7 +6849,7 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6853,25 +6865,25 @@
     </row>
     <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6881,32 +6893,32 @@
     </row>
     <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -6914,68 +6926,68 @@
     </row>
     <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -6983,38 +6995,38 @@
     </row>
     <row r="28" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -7022,92 +7034,92 @@
     </row>
     <row r="38" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D44" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C48" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -7136,15 +7148,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -7167,26 +7179,26 @@
     </row>
     <row r="3" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20"/>
-      <c r="B3" s="40" t="s">
-        <v>565</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
+      <c r="B3" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
     </row>
     <row r="4" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20"/>
@@ -7886,14 +7898,6 @@
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
       <c r="M37" s="20"/>
       <c r="N37" s="20"/>
       <c r="O37" s="20"/>
@@ -7917,7 +7921,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7927,10 +7931,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7955,79 +7959,79 @@
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -8048,10 +8052,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8067,61 +8071,61 @@
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8129,12 +8133,12 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -8155,7 +8159,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8171,37 +8175,37 @@
     </row>
     <row r="3" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8211,10 +8215,10 @@
     </row>
     <row r="11" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8222,7 +8226,7 @@
         <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8232,12 +8236,12 @@
     </row>
     <row r="14" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8247,96 +8251,96 @@
     </row>
     <row r="17" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8344,7 +8348,7 @@
     </row>
     <row r="85" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -8367,7 +8371,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8383,37 +8387,37 @@
     </row>
     <row r="3" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8423,10 +8427,10 @@
     </row>
     <row r="11" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8441,12 +8445,12 @@
     </row>
     <row r="14" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8456,100 +8460,100 @@
     </row>
     <row r="17" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="D84" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="E84" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="F84" s="15" t="s">
         <v>249</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -8574,12 +8578,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8587,7 +8591,7 @@
     </row>
     <row r="4" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -8595,31 +8599,31 @@
     </row>
     <row r="5" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D7" s="11"/>
     </row>
@@ -8630,48 +8634,48 @@
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
+      <c r="A9" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8686,20 +8690,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8707,7 +8711,7 @@
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8723,37 +8727,37 @@
     </row>
     <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J9" s="15"/>
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -8763,7 +8767,7 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -8773,21 +8777,21 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -8795,7 +8799,7 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -8803,7 +8807,7 @@
     </row>
     <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -8811,7 +8815,7 @@
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -8819,11 +8823,11 @@
     </row>
     <row r="19" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -8835,7 +8839,7 @@
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -8843,37 +8847,37 @@
     </row>
     <row r="22" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
-      <c r="B22" s="31" t="s">
-        <v>284</v>
+      <c r="B22" s="34" t="s">
+        <v>281</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="31" t="s">
-        <v>285</v>
+      <c r="D22" s="34" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
-      <c r="B23" s="31"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="31"/>
+      <c r="D23" s="34"/>
     </row>
     <row r="24" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
-      <c r="B24" s="31"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="31"/>
+      <c r="D24" s="34"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
-      <c r="B25" s="31"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="31"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
-      <c r="B26" s="31"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="31"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
@@ -8883,10 +8887,10 @@
     </row>
     <row r="28" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -8899,53 +8903,53 @@
     </row>
     <row r="30" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
-      <c r="B30" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
     </row>
     <row r="35" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
@@ -8955,7 +8959,7 @@
     </row>
     <row r="39" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -8963,7 +8967,7 @@
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -8971,7 +8975,7 @@
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -8979,24 +8983,24 @@
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>226</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>228</v>
       </c>
       <c r="F42" s="14"/>
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
